--- a/Documents/Interface.xlsx
+++ b/Documents/Interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="注册登录" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="消费明细" sheetId="6" r:id="rId6"/>
     <sheet name="不等位预约" sheetId="7" r:id="rId7"/>
     <sheet name="餐厅详情" sheetId="8" r:id="rId8"/>
+    <sheet name="VIP特权" sheetId="9" r:id="rId9"/>
+    <sheet name="乐生活" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="275">
   <si>
     <t>PhoneNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -739,10 +741,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FirstOffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReservationInformation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -806,6 +804,306 @@
   </si>
   <si>
     <t>Activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfferItem</t>
+  </si>
+  <si>
+    <t>OfferItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestaurantHighlights</t>
+  </si>
+  <si>
+    <t>RestaurantHighlights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageInfo</t>
+  </si>
+  <si>
+    <t>图像对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestaurantDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业时间</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>CuisineId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CuisineName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜系Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜系名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParkingService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadRestaurantDetail()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestaurantDetail的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Activity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅亮点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCoupon(string CustomerId,string activityId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadActivityDetail(string activityId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityDetail的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase(string activityId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HappyLiveConfiguration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadHappyLiveConfiguration()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级类目Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级类目名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级类目集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubItems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Item&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIPPrivilegeConfiguration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadVIPPrivilegeConfiguration()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemainingMumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余优惠量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIPSpike</t>
+  </si>
+  <si>
+    <t>VIPItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;VIPItem&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialOffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allelic</t>
+  </si>
+  <si>
+    <t>不等位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +1114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,6 +1124,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -915,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -938,6 +1251,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1245,7 +1561,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1440,12 +1756,200 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1506,76 +2010,76 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1587,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2389,7 +2893,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2543,124 +3047,569 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>197</v>
       </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A14:C14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>194</v>
+        <v>213</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Interface.xlsx
+++ b/Documents/Interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="注册登录" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="283">
   <si>
     <t>PhoneNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,10 +525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CustomerSummary Register(CustomerSummary customerSummary)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CustomerSummary Login(CustomerSummary customerSummary)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1104,6 +1100,42 @@
   </si>
   <si>
     <t>秒杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式:Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUPLICATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECURITY_CODE_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string Register(string phoneNumber, string password, string securityNumber)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string Register(string phoneNumber, string password, string securityNumber,string userName)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,13 +1260,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1251,9 +1287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1558,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1572,11 +1605,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1652,18 +1685,18 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>122</v>
@@ -1687,7 +1720,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1697,58 +1730,76 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1772,11 +1823,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1824,97 +1875,97 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -1960,11 +2011,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2022,11 +2073,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -2103,11 +2154,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2187,11 +2238,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -2216,11 +2267,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -2256,11 +2307,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -2285,11 +2336,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
@@ -2314,11 +2365,11 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -2343,11 +2394,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -2438,7 +2489,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -2489,43 +2540,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2541,47 +2592,47 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>124</v>
@@ -2590,10 +2641,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -2604,7 +2655,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -2617,7 +2668,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -2650,94 +2701,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2747,7 +2798,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -2760,7 +2811,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2768,7 +2819,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -2814,43 +2865,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -2860,7 +2911,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -2873,7 +2924,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -2904,11 +2955,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2923,13 +2974,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2989,13 +3040,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -3061,204 +3112,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -3273,191 +3324,191 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" t="s">
         <v>227</v>
-      </c>
-      <c r="B38" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" t="s">
         <v>227</v>
-      </c>
-      <c r="B42" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" t="s">
         <v>227</v>
-      </c>
-      <c r="B46" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B47" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B50" s="13" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3478,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3490,11 +3541,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3509,85 +3560,85 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
